--- a/medicine/Psychotrope/Collerette_(bière)/Collerette_(bière).xlsx
+++ b/medicine/Psychotrope/Collerette_(bière)/Collerette_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Collerette_(bi%C3%A8re)</t>
+          <t>Collerette_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La collerette (drop-catcher en anglais, pilsdeckchen en allemand) désigne deux accessoires utilisés dans le monde de la bière :
 c'est la petite rondelle de papier ou de tissu blanc qui se place autour du pied d'un verre à bière afin de recueillir les éventuels débordements de mousse ou les gouttelettes de condensation, qui pourraient rendre malaisée la manipulation dudit verre. Elle comporte en général aussi un message publicitaire axé sur un nom de marque ou un slogan d'une brasserie.
